--- a/doc/Zuordnung.xlsx
+++ b/doc/Zuordnung.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Wronka\Desktop\cooleMicroservices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Wronka\Desktop\cooleMicroservices\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Zurordnung" sheetId="1" r:id="rId1"/>
+    <sheet name="Sitzordnung" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,39 +25,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>Tahsin</t>
-  </si>
-  <si>
-    <t>Julian</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Steven</t>
-  </si>
-  <si>
-    <t>Lars</t>
-  </si>
-  <si>
-    <t>Andreas</t>
-  </si>
-  <si>
-    <t>Musa</t>
+    <t>Tahsin, Kahrima</t>
+  </si>
+  <si>
+    <t>Julian, Meser</t>
+  </si>
+  <si>
+    <t>Martin, Bermel</t>
+  </si>
+  <si>
+    <t>Steven, Schmidt</t>
+  </si>
+  <si>
+    <t>Lars, Junker</t>
+  </si>
+  <si>
+    <t>Andreas, Wershofen</t>
+  </si>
+  <si>
+    <t>Musa, Ghanbariar</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Persistenz</t>
   </si>
 </sst>
 </file>
@@ -407,27 +408,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -435,72 +437,80 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/Zuordnung.xlsx
+++ b/doc/Zuordnung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Zurordnung" sheetId="1" r:id="rId1"/>
@@ -25,32 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>Tahsin, Kahrima</t>
-  </si>
-  <si>
-    <t>Julian, Meser</t>
-  </si>
-  <si>
-    <t>Martin, Bermel</t>
-  </si>
-  <si>
-    <t>Steven, Schmidt</t>
-  </si>
-  <si>
-    <t>Lars, Junker</t>
-  </si>
-  <si>
-    <t>Andreas, Wershofen</t>
-  </si>
-  <si>
-    <t>Musa, Ghanbariar</t>
-  </si>
-  <si>
     <t>Frontend</t>
   </si>
   <si>
@@ -58,6 +37,48 @@
   </si>
   <si>
     <t>Persistenz</t>
+  </si>
+  <si>
+    <t>Tahsin Kahrima</t>
+  </si>
+  <si>
+    <t>Julian Meser</t>
+  </si>
+  <si>
+    <t>Martin Bermel</t>
+  </si>
+  <si>
+    <t>Steven Schmidt</t>
+  </si>
+  <si>
+    <t>Lars Junker</t>
+  </si>
+  <si>
+    <t>Andreas Wershofen</t>
+  </si>
+  <si>
+    <t>Musa Ghanbariar</t>
+  </si>
+  <si>
+    <t>Musa</t>
+  </si>
+  <si>
+    <t>Lars</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Tahsin</t>
+  </si>
+  <si>
+    <t>Steven</t>
   </si>
 </sst>
 </file>
@@ -81,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +112,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -122,10 +161,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -408,7 +453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -418,38 +465,38 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -458,42 +505,42 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -505,12 +552,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/Zuordnung.xlsx
+++ b/doc/Zuordnung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Zurordnung" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
-  <si>
-    <t>X</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Frontend</t>
   </si>
@@ -37,30 +34,6 @@
     <t>Backend</t>
   </si>
   <si>
-    <t>Persistenz</t>
-  </si>
-  <si>
-    <t>Tahsin Kahrima</t>
-  </si>
-  <si>
-    <t>Julian Meser</t>
-  </si>
-  <si>
-    <t>Martin Bermel</t>
-  </si>
-  <si>
-    <t>Steven Schmidt</t>
-  </si>
-  <si>
-    <t>Lars Junker</t>
-  </si>
-  <si>
-    <t>Andreas Wershofen</t>
-  </si>
-  <si>
-    <t>Musa Ghanbariar</t>
-  </si>
-  <si>
     <t>Musa</t>
   </si>
   <si>
@@ -88,7 +61,19 @@
     <t>Eintrag</t>
   </si>
   <si>
-    <t>Musa, Steven, Lars und Tasin nicht anwesend.</t>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Persistenze</t>
+  </si>
+  <si>
+    <t>Buildmanager</t>
   </si>
 </sst>
 </file>
@@ -112,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,13 +118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -171,17 +150,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -462,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,18 +455,18 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -495,67 +474,32 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>0</v>
-      </c>
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -573,25 +517,25 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -603,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,19 +558,14 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>43252</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/doc/Zuordnung.xlsx
+++ b/doc/Zuordnung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Wronka\Desktop\cooleMicroservices\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Wronka\Desktop\SubZeroMicroservices(owronka)\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,35 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Frontend</t>
   </si>
   <si>
-    <t>Backend</t>
-  </si>
-  <si>
-    <t>Musa</t>
-  </si>
-  <si>
-    <t>Lars</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Julian</t>
-  </si>
-  <si>
-    <t>Andreas</t>
-  </si>
-  <si>
-    <t>Tahsin</t>
-  </si>
-  <si>
-    <t>Steven</t>
-  </si>
-  <si>
     <t>Datum</t>
   </si>
   <si>
@@ -70,17 +46,60 @@
     <t>Content</t>
   </si>
   <si>
-    <t>Persistenze</t>
-  </si>
-  <si>
     <t>Buildmanager</t>
+  </si>
+  <si>
+    <t>Sarah Waleczek fehlt entschuldigt</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Persistenz</t>
+  </si>
+  <si>
+    <t>Max Scheithauer</t>
+  </si>
+  <si>
+    <t>Vanessa Schreuder</t>
+  </si>
+  <si>
+    <t>Nils Koch</t>
+  </si>
+  <si>
+    <t>Rabia Akin</t>
+  </si>
+  <si>
+    <t>Stefan Lorse</t>
+  </si>
+  <si>
+    <t>Hajar Menssouri</t>
+  </si>
+  <si>
+    <t>Sarah Waleczek</t>
+  </si>
+  <si>
+    <t>Thomas Herent</t>
+  </si>
+  <si>
+    <t>Cansu Emine Bugdayci</t>
+  </si>
+  <si>
+    <t>Buildmanager / PO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcel Oliver Krug
+</t>
+  </si>
+  <si>
+    <t>Simon Brinkmann</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +111,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -158,9 +183,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -441,64 +470,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -507,38 +568,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -548,7 +585,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,14 +595,19 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4">
+        <v>43595</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/doc/Zuordnung.xlsx
+++ b/doc/Zuordnung.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Wronka\Desktop\SubZeroMicroservices(owronka)\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\SubZeroMicroservices\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D437B04-321F-4CE9-A109-AA7D3C57440C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zurordnung" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Frontend</t>
   </si>
@@ -58,47 +59,13 @@
     <t>Persistenz</t>
   </si>
   <si>
-    <t>Max Scheithauer</t>
-  </si>
-  <si>
-    <t>Vanessa Schreuder</t>
-  </si>
-  <si>
-    <t>Nils Koch</t>
-  </si>
-  <si>
-    <t>Rabia Akin</t>
-  </si>
-  <si>
-    <t>Stefan Lorse</t>
-  </si>
-  <si>
-    <t>Hajar Menssouri</t>
-  </si>
-  <si>
-    <t>Sarah Waleczek</t>
-  </si>
-  <si>
-    <t>Thomas Herent</t>
-  </si>
-  <si>
-    <t>Cansu Emine Bugdayci</t>
-  </si>
-  <si>
-    <t>Buildmanager / PO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcel Oliver Krug
-</t>
-  </si>
-  <si>
-    <t>Simon Brinkmann</t>
+    <t>Productowner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,20 +436,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="4" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="4" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -494,65 +461,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>21</v>
-      </c>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
     </row>
@@ -567,33 +512,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="46.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -601,7 +546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43595</v>
       </c>

--- a/doc/Zuordnung.xlsx
+++ b/doc/Zuordnung.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\SubZeroMicroservices\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D437B04-321F-4CE9-A109-AA7D3C57440C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EE7BCE-9136-4948-A392-A7C8E5756AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1164" yWindow="1116" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zurordnung" sheetId="1" r:id="rId1"/>
-    <sheet name="Sitzordnung" sheetId="2" r:id="rId2"/>
+    <sheet name="Anwesenheit" sheetId="2" r:id="rId2"/>
     <sheet name="Tagebuch" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Frontend</t>
   </si>
@@ -60,6 +60,54 @@
   </si>
   <si>
     <t>Productowner</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Altundag, Jasemin</t>
+  </si>
+  <si>
+    <t>Bouaich, Latifa</t>
+  </si>
+  <si>
+    <t>Eray, Alihan</t>
+  </si>
+  <si>
+    <t>Foka Mefodjo, Annyck Dallia</t>
+  </si>
+  <si>
+    <t>Kocabey, Candan</t>
+  </si>
+  <si>
+    <t>Menssouri, Hajar</t>
+  </si>
+  <si>
+    <t>Schubert, Maximilian</t>
+  </si>
+  <si>
+    <t>Tayfur, Rojda</t>
+  </si>
+  <si>
+    <t>Türk, Aylin</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>fehlt entschuldigt</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t>fe</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>anwesend</t>
   </si>
 </sst>
 </file>
@@ -89,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,14 +196,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -439,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,14 +514,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -465,41 +529,61 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -513,15 +597,228 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="9" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8">
+        <v>43945</v>
+      </c>
+      <c r="C1" s="8">
+        <v>43959</v>
+      </c>
+      <c r="D1" s="8">
+        <v>43966</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -547,7 +844,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43595</v>
       </c>
       <c r="B2" t="s">

--- a/doc/Zuordnung.xlsx
+++ b/doc/Zuordnung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\SubZeroMicroservices\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EE7BCE-9136-4948-A392-A7C8E5756AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7641270E-E002-410D-9F4E-97482C43319A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1164" yWindow="1116" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zurordnung" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="27">
   <si>
     <t>Frontend</t>
   </si>
@@ -600,7 +600,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,10 +622,18 @@
       <c r="D1" s="8">
         <v>43966</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="E1" s="8">
+        <v>43980</v>
+      </c>
+      <c r="F1" s="8">
+        <v>43987</v>
+      </c>
+      <c r="G1" s="8">
+        <v>43994</v>
+      </c>
+      <c r="H1" s="8">
+        <v>44001</v>
+      </c>
       <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -641,10 +649,18 @@
       <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -660,10 +676,18 @@
       <c r="D3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -679,10 +703,18 @@
       <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -698,10 +730,18 @@
       <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -717,10 +757,18 @@
       <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -749,10 +797,18 @@
       <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -768,10 +824,18 @@
       <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -787,10 +851,18 @@
       <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
